--- a/Documentación/Requerimiento.xlsx
+++ b/Documentación/Requerimiento.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giecom\Desktop\Proyecto\CONGRESO\CONGRESO\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97BAC2F4-8730-46C1-83CA-24EDF64F839D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125CE376-615E-428C-AF2D-66829002C897}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{0B9A1DC6-C00B-4989-93AF-F85BFD076BDF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" activeTab="1" xr2:uid="{0B9A1DC6-C00B-4989-93AF-F85BFD076BDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
-    <sheet name="Requiso funcionales" sheetId="2" r:id="rId2"/>
+    <sheet name="Actores" sheetId="3" r:id="rId2"/>
+    <sheet name="Requiso funcionales" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -23,6 +24,59 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>Super Administrador</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Administra el aplicativo</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Participante</t>
+  </si>
+  <si>
+    <t>Administración evento</t>
+  </si>
+  <si>
+    <t>Usuario del sistema.</t>
+  </si>
+  <si>
+    <t>Participantes</t>
+  </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>Se encarga de la logistica y asistencia de la participación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ponente </t>
+  </si>
+  <si>
+    <t>Son los asistente a los eventos</t>
+  </si>
+  <si>
+    <t>Son las personas quienes van a exponer resultados.</t>
+  </si>
+  <si>
+    <t>Magistral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripción </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,8 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A471AE7C-CE23-4423-B36A-5DC49DDC89CA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -385,11 +443,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B945942C-DA8B-4E2C-AD3F-32C1F4CC9DA4}">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B700720-1E9E-4FF9-A907-5BCB9D88C9AB}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
